--- a/DDAf_2024_Tableau_annexe_sources.xlsx
+++ b/DDAf_2024_Tableau_annexe_sources.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523913B8-30F5-4CF1-9C6B-2EC3FAE2C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{5419EBB9-DD33-42A8-A22A-71D91800F8C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -42,7 +56,7 @@
     <t>Comité d'aide au développement de l'OCDE (CAD)</t>
   </si>
   <si>
-    <t>Récupéré le 14/09/2021</t>
+    <t>Récupéré le 22/12/2023</t>
   </si>
   <si>
     <t>https://stats-2.oecd.org/Index.aspx?lang=fr&amp;SubSessionId=6a671414-4b8a-437c-8c72-4ae6ef4ea94c&amp;themetreeid=3</t>
@@ -54,280 +68,379 @@
     <t>Centre d'Etudes Prospectives et d'Informations Internationales (CEPII)</t>
   </si>
   <si>
-    <t>Mise à jour le 19 février, 2021</t>
-  </si>
-  <si>
-    <t>http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
-  </si>
-  <si>
-    <t>Base de données des coûts commerciaux CESAP-Banque mondiale</t>
+    <t>Mise à jour le 01/02/2023</t>
+  </si>
+  <si>
+    <t>www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+  </si>
+  <si>
+    <t>CNUCED-Eora Global Value Chains (GVC) base de données</t>
+  </si>
+  <si>
+    <t>CNUCED-Eora</t>
+  </si>
+  <si>
+    <t>Récupéré le 19/11/2022</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/wdr2022/brief/world-development-report-2022-data</t>
+  </si>
+  <si>
+    <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
+  </si>
+  <si>
+    <t>Division de statistique des Nations Unies (UNSD)</t>
+  </si>
+  <si>
+    <t>Mise en ligne décembre 2023</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/unsd/snaama/</t>
+  </si>
+  <si>
+    <t>Coûts commerciaux CESAP-Banque mondiale (base de données)</t>
   </si>
   <si>
     <t>Nations Unies et Banque mondiale</t>
   </si>
   <si>
-    <t>Mis à jour le 01/06/2021</t>
-  </si>
-  <si>
-    <t>https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
-  </si>
-  <si>
-    <t>Base de données des Perspectives de l'économie mondiale du FMI</t>
+    <t>Mis à jour le 17/05/2022</t>
+  </si>
+  <si>
+    <t>www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+  </si>
+  <si>
+    <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement</t>
+  </si>
+  <si>
+    <t>PNUD</t>
+  </si>
+  <si>
+    <t>2021-22</t>
+  </si>
+  <si>
+    <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
+  </si>
+  <si>
+    <t>Ensemble de données en ligne sur les émissions de GES provenant de la combustion de carburant (résumé)</t>
+  </si>
+  <si>
+    <t>Agence internationale de l'énergie (AIE)</t>
+  </si>
+  <si>
+    <t>Récupéré le 23/09/2022</t>
+  </si>
+  <si>
+    <t>http://dotstat.oecd.org/Index.aspx?DataSetCode=GHG#</t>
+  </si>
+  <si>
+    <t>Ensemble de données OCDE/GBD sur la mortalité, la morbidité et le coût pour le bien-être de l'exposition aux risques liés à l'environnement</t>
+  </si>
+  <si>
+    <t>OCDE et Institute for Health Metrics and Evaluation</t>
+  </si>
+  <si>
+    <t>Mis à jour le 20/12/2020</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?QueryId=90835</t>
+  </si>
+  <si>
+    <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
+  </si>
+  <si>
+    <t>Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO)</t>
+  </si>
+  <si>
+    <t>Récupéré 24/10/2022</t>
+  </si>
+  <si>
+    <t>www.fao.org/faostat/fr/#data</t>
+  </si>
+  <si>
+    <t>FMI Balance of Paytments and International Investment Position Statistics (IMF/IIP)</t>
+  </si>
+  <si>
+    <t>Fonds monétaire international (FMI)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 25/10/2023</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=7A51304B-6426-40C0-83DD-CA473CA1FD52</t>
+  </si>
+  <si>
+    <t>FMI Investment and Capital Stock (ICSD)</t>
+  </si>
+  <si>
+    <t>Mis à jour le 27/10/2023</t>
+  </si>
+  <si>
+    <t>https://data.imf.org/?sk=1CE8A55F-CFA7-4BC0-BCE2-256EE65AC0E4</t>
+  </si>
+  <si>
+    <t>Gallup World Poll</t>
+  </si>
+  <si>
+    <t>The Gallup Organization</t>
+  </si>
+  <si>
+    <t>Consulté le 15 décembre 2020 (payant)</t>
+  </si>
+  <si>
+    <t>www.gallup.com/home.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Knowledge Partnership on Migration and Development (KNOMAD) </t>
+  </si>
+  <si>
+    <t>Banque mondiale-KNOMAD</t>
+  </si>
+  <si>
+    <t>Décembre 2023</t>
+  </si>
+  <si>
+    <t>www.knomad.org/</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence (base de données)</t>
+  </si>
+  <si>
+    <t>GSMA Intelligence</t>
+  </si>
+  <si>
+    <t>Données mises à jour en juin 2020 (payantes)</t>
+  </si>
+  <si>
+    <t>www.gsmaintelligence.com/data/</t>
+  </si>
+  <si>
+    <t>Index du commerce électronique B2C de la CNUCED</t>
+  </si>
+  <si>
+    <t>CNUCED</t>
+  </si>
+  <si>
+    <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
+  </si>
+  <si>
+    <t>Indicateurs de développement de la Banque mondiale</t>
+  </si>
+  <si>
+    <t>Banque mondiale</t>
+  </si>
+  <si>
+    <t>Mise à jour le 18/12/2023</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/products/wdi</t>
+  </si>
+  <si>
+    <t>Indice de la faim dans le monde (GHI)</t>
+  </si>
+  <si>
+    <t>Welthungerhilfe and Concern Worldwide</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>www.globalhungerindex.org/download/all.html</t>
+  </si>
+  <si>
+    <t>Indice Institutions sociales et égalité des genres (SIGI) 2023 (base de données)</t>
+  </si>
+  <si>
+    <t>Centre de développement de l'OCDE</t>
+  </si>
+  <si>
+    <t>Mars 2023</t>
+  </si>
+  <si>
+    <t>www.genderindex.org/data/</t>
+  </si>
+  <si>
+    <t>Informality Database (Elgin, C., M. A. Kose, F. Ohnsorge, and S. Yu. 2021. “Understanding Informality.” CERP Discussion Paper 16497)</t>
+  </si>
+  <si>
+    <t>Centre for Economic Policy Research</t>
+  </si>
+  <si>
+    <t>09/01/2024</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/research/brief/informal-economy-database</t>
+  </si>
+  <si>
+    <t>L'évolution des richesses des nations 2021</t>
+  </si>
+  <si>
+    <t>27 octobre 2021</t>
+  </si>
+  <si>
+    <t>www.worldbank.org/en/publication/changing-wealth-of-nations/data</t>
+  </si>
+  <si>
+    <t>Microdonnées de l'enquête de la Banque mondiale auprès des entreprises</t>
+  </si>
+  <si>
+    <t>Récupéré avril 2020</t>
+  </si>
+  <si>
+    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
+  </si>
+  <si>
+    <t>Organisation internationale du Travail - ILOSTAT</t>
+  </si>
+  <si>
+    <t>Organisation Internationale du Travail (OIT)</t>
+  </si>
+  <si>
+    <t>Récupéré le 14/05/2023</t>
+  </si>
+  <si>
+    <t>https://ilostat.ilo.org/fr/</t>
+  </si>
+  <si>
+    <t>Perspectives de l'économie mondiale du FMI (base de données)</t>
   </si>
   <si>
     <t>FMI</t>
   </si>
   <si>
-    <t>Avril 2022 (octobre 2019 pour certains indicateurs)</t>
-  </si>
-  <si>
-    <t>https://www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
-  </si>
-  <si>
-    <t>Base de données Égalité femmes-hommes, institutions et développement</t>
-  </si>
-  <si>
-    <t>Centre de développement de l'OCDE</t>
-  </si>
-  <si>
-    <t>Décembre 2019</t>
-  </si>
-  <si>
-    <t>https://www.genderindex.org/data/</t>
-  </si>
-  <si>
-    <t>Base de données en ligne du World Happiness Report</t>
+    <t>Octobre 2023</t>
+  </si>
+  <si>
+    <t>www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
+  </si>
+  <si>
+    <t>Rapport mondial de suivi sur l’éducation 2021/2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>https://www.unesco.org/gem-report/fr/non-state-actors</t>
+  </si>
+  <si>
+    <t>Renewable Energy Statistics 2022</t>
+  </si>
+  <si>
+    <t>Agence internationale des énergies renouvelables (IRENA)</t>
+  </si>
+  <si>
+    <t>Récupéré le 06/10/2022</t>
+  </si>
+  <si>
+    <t>www.irena.org/Données</t>
+  </si>
+  <si>
+    <t>UNCTADSTAT, Centre de données sur les IDE</t>
+  </si>
+  <si>
+    <t>Mis à jour le 22/09/2023</t>
+  </si>
+  <si>
+    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
+  </si>
+  <si>
+    <t>UNESCO Institute for Statistics (UIS) Database</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
+    <t>Récupéré le 17/11/2021</t>
+  </si>
+  <si>
+    <t>http://data.uis.unesco.org/Index.aspx</t>
+  </si>
+  <si>
+    <t>Union internationale des télécommunications - Base de données en ligne sur les indicateurs TIC</t>
+  </si>
+  <si>
+    <t>Union internationale des télécommunications</t>
+  </si>
+  <si>
+    <t>Récupéré le 02/02/2024</t>
+  </si>
+  <si>
+    <t>www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
+  </si>
+  <si>
+    <t>Wittgenstein Centre Human Capital Data Explorer</t>
+  </si>
+  <si>
+    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+  </si>
+  <si>
+    <t>World Bank Global Bilateral Migration Matrix (WBGBMM)</t>
+  </si>
+  <si>
+    <t>Édition 2023</t>
+  </si>
+  <si>
+    <t>https://www.worldbank.org/en/publication/wdr2023/data</t>
+  </si>
+  <si>
+    <t>World Happiness Report (base de données)</t>
   </si>
   <si>
     <t>Global Happiness Council (GHC)</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>http://worldhappiness.report/</t>
   </si>
   <si>
-    <t>Base de données GSMA Intelligence</t>
-  </si>
-  <si>
-    <t>GSMA Intelligence</t>
-  </si>
-  <si>
-    <t>Données mises à jour en juin 2020 (payantes)</t>
-  </si>
-  <si>
-    <t>https://www.gsmaintelligence.com/data/</t>
-  </si>
-  <si>
-    <t>Base de données sur les CVM du Rapport sur le développement dans le monde 2020 (worldbank.org)</t>
-  </si>
-  <si>
-    <t>Banque mondiale</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
-  </si>
-  <si>
-    <t>Base de données sur les IDE du Centre de données en ligne UNCTADStat</t>
-  </si>
-  <si>
-    <t>CNUCED</t>
-  </si>
-  <si>
-    <t>Récupéré le 17/11/2021</t>
-  </si>
-  <si>
-    <t>http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr</t>
-  </si>
-  <si>
-    <t>Base de données CNUCED-Eora sur la chaîne de valeur mondiale (CVM)</t>
-  </si>
-  <si>
-    <t>CNUCED et Eora</t>
-  </si>
-  <si>
-    <t>Mise à jour le 01/09/2021</t>
-  </si>
-  <si>
-    <t>https://worldmrio.com/unctadgvc/</t>
-  </si>
-  <si>
-    <t>Comptes nationaux de la Division de statistique des Nations Unies</t>
-  </si>
-  <si>
-    <t>Division de statistique des Nations Unies (UNSD)</t>
-  </si>
-  <si>
-    <t>Mise en ligne décembre 2020</t>
-  </si>
-  <si>
-    <t>https://unstats.un.org/unsd/snaama/</t>
-  </si>
-  <si>
-    <t>Données de la Banque mondiale sur les migrations et les envois de fonds</t>
-  </si>
-  <si>
-    <t>Mai 2021</t>
-  </si>
-  <si>
-    <t>http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
-  </si>
-  <si>
-    <t>Données en ligne sur le développement humain du Programme des Nations Unies pour le développement</t>
-  </si>
-  <si>
-    <t>PNUD</t>
-  </si>
-  <si>
-    <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
-  </si>
-  <si>
-    <t>FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture</t>
-  </si>
-  <si>
-    <t>Organisation des Nations Unies pour l'alimentation et l'agriculture (FAO)</t>
-  </si>
-  <si>
-    <t>Récupéré 18/11/2021</t>
-  </si>
-  <si>
-    <t>http://www.fao.org/faostat/fr/#data</t>
-  </si>
-  <si>
-    <t>Gallup World Poll</t>
-  </si>
-  <si>
-    <t>The Gallup Organization</t>
-  </si>
-  <si>
-    <t>Consulté le 15 décembre 2020 (payant)</t>
-  </si>
-  <si>
-    <t>https://www.gallup.com/home.aspx</t>
-  </si>
-  <si>
-    <t>Index du commerce électronique B2C de la CNUCED</t>
-  </si>
-  <si>
-    <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
-  </si>
-  <si>
-    <t>Mise à jour le 22/04/2022</t>
-  </si>
-  <si>
-    <t>https://data.worldbank.org/products/wdi</t>
-  </si>
-  <si>
-    <t>Indice de la faim dans le monde (GHI) - IFPRI</t>
-  </si>
-  <si>
-    <t>Welthungerhilfe and Concern Worldwide</t>
-  </si>
-  <si>
-    <t>https://www.globalhungerindex.org/download/all.html</t>
-  </si>
-  <si>
-    <t>L'Étude ISO sur les certifications</t>
-  </si>
-  <si>
-    <t>Organisation internationale de normalisation</t>
-  </si>
-  <si>
-    <t>Mis à jour le 06/09/2021</t>
-  </si>
-  <si>
-    <t>https://www.iso.org/fr/the-iso-survey.html</t>
-  </si>
-  <si>
-    <t>Organisation internationale du Travail - ILOSTAT</t>
-  </si>
-  <si>
-    <t>Organisation Internationale du Travail (OIT)</t>
-  </si>
-  <si>
-    <t>Récupéré le 14/11/2021</t>
-  </si>
-  <si>
-    <t>https://ilostat.ilo.org/fr/</t>
-  </si>
-  <si>
-    <t>UNESCO Institute for Statistics (UIS) Database</t>
-  </si>
-  <si>
-    <t>UNESCO</t>
-  </si>
-  <si>
-    <t>http://data.uis.unesco.org/Index.aspx</t>
-  </si>
-  <si>
-    <t>Union internationale des télécommunications - Base de données en ligne sur les indicateurs TIC</t>
-  </si>
-  <si>
-    <t>Union internationale des télécommunications</t>
-  </si>
-  <si>
-    <t>Récupéré le 19/11/2021</t>
-  </si>
-  <si>
-    <t>https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre Human Capital Data Explorer</t>
-  </si>
-  <si>
-    <t>Wittgenstein Centre for Demography and Global Human Capital</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
-  </si>
-  <si>
-    <t>World Bank Enterprise Survey Microdata</t>
-  </si>
-  <si>
-    <t>Récupéré avril 2020</t>
-  </si>
-  <si>
-    <t>https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about</t>
-  </si>
-  <si>
-    <t>World Population Prospects: the 2019 revision, ONU</t>
+    <t>World Inequality Database on Education (WIDE)</t>
+  </si>
+  <si>
+    <t>Institut de statistique de l'UNESCO</t>
+  </si>
+  <si>
+    <t>Récupéré le 23/11/2023</t>
+  </si>
+  <si>
+    <t>https://www.education-inequalities.org/about</t>
+  </si>
+  <si>
+    <t>World Population Prospects: the 2022 revision, ONU</t>
   </si>
   <si>
     <t>Nations Unies, Département des affaires économiques et sociales, Division de la population</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects: the 2019 revision, ONU</t>
+    <t>World Urbanization Prospects 2018, ONU</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Indicateurs de développement de la Banque mondiale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -382,11 +495,12 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
-      <family val="1"/>
-      <scheme val="major"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -430,44 +544,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{9B5C409E-A489-459C-BD63-24762A49E493}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -483,12 +601,39 @@
         <shadow val="0"/>
         <u/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="10"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -523,31 +668,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="major"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -594,7 +715,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE1F0DE"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -628,7 +749,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{271DC029-23F0-41F6-B018-67C902893D07}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -646,12 +767,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E29" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0795E87D-9FC0-46D1-9D70-86FC9FA77C61}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{FD849784-5B78-453A-97DD-FA1BDD06930E}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{65119FAA-0486-4B68-8970-3E69F4EEE554}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{90041506-C5C9-452C-809E-19AE6D544B59}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{FF339C82-A9CA-490C-9F16-4B45094490FE}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -674,7 +795,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -686,7 +807,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -733,6 +854,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -768,6 +906,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -919,29 +1074,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D64C3AE-AA59-48DA-839E-4FCEB51EFACD}">
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="101.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -949,7 +1102,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -964,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -972,29 +1125,29 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1002,29 +1155,29 @@
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1032,44 +1185,44 @@
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -1077,14 +1230,14 @@
       <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -1092,14 +1245,14 @@
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>41</v>
@@ -1107,44 +1260,44 @@
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -1152,495 +1305,622 @@
       <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="8">
+        <v>2018</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm"/>
-    <hyperlink ref="E6" r:id="rId3" display="http://worldhappiness.report/"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://worldhappiness.report/"/>
-    <hyperlink ref="D17" r:id="rId5" display="http://worldhappiness.report/"/>
-    <hyperlink ref="E14" r:id="rId6" display="https://www.gallup.com/home.aspx"/>
-    <hyperlink ref="E7" r:id="rId7" display="https://www.gsmaintelligence.com/data/"/>
-    <hyperlink ref="E15" r:id="rId8" display="https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf"/>
-    <hyperlink ref="E22" r:id="rId9" display="http://dataexplorer.wittgensteincentre.org/wcde-v2/"/>
-    <hyperlink ref="E23" r:id="rId10" display="https://microdata.worldbank.org/index.php/catalog/enterprise_surveys/about"/>
-    <hyperlink ref="E10" r:id="rId11" display="https://unstats.un.org/unsd/snaama/"/>
-    <hyperlink ref="E13" r:id="rId12" location="data" display="http://www.fao.org/faostat/fr/#data"/>
-    <hyperlink ref="E17" r:id="rId13" display="https://www.globalhungerindex.org/download/all.html"/>
-    <hyperlink ref="E4" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx"/>
-    <hyperlink ref="E20" r:id="rId15" display="https://www.itu.int/en/ITU-D/Statistics/Pages/stat/default.aspx"/>
-    <hyperlink ref="E5" r:id="rId16" display="https://www.genderindex.org/data/"/>
-    <hyperlink ref="E9" r:id="rId17" display="https://comtrade.un.org/data"/>
-    <hyperlink ref="E8" r:id="rId18" display="http://unctadstat.unctad.org/wds/ReportFolders/reportFolders.aspx?sCS_ChosenLang=fr"/>
-    <hyperlink ref="E19" r:id="rId19" display="http://data.uis.unesco.org/Index.aspx"/>
-    <hyperlink ref="E12" r:id="rId20" display="http://hdr.undp.org/en/content/human-development-index-hdi"/>
-    <hyperlink ref="E11" r:id="rId21" display="http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data"/>
-    <hyperlink ref="E16" r:id="rId22" display="https://data.worldbank.org/products/wdi"/>
-    <hyperlink ref="E24" r:id="rId23" display="https://population.un.org/wpp/Download/Standard/Population/"/>
-    <hyperlink ref="E25" r:id="rId24" display="https://population.un.org/wup/"/>
-    <hyperlink ref="B31" r:id="rId25"/>
-    <hyperlink ref="B33" r:id="rId26"/>
-    <hyperlink ref="B34" r:id="rId27" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{342457C1-75E4-4D95-BDAD-696B7297E364}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{7CCCC5C1-45EB-45FF-A568-20010112B5E9}"/>
+    <hyperlink ref="B41" r:id="rId3" xr:uid="{49A5437A-7EC5-498F-A529-4D6D528F37E6}"/>
+    <hyperlink ref="B39" r:id="rId4" xr:uid="{F596193E-ECAC-4E6A-8D74-BFF05BE884F5}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{8D561045-A8CB-4AE5-94F6-4A5551A519ED}"/>
+    <hyperlink ref="E17" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B98545A-7200-4065-B16F-33D12ABFB3AB}"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4939EC71-8E57-4CA0-A926-E89B9A9E47F7}"/>
+    <hyperlink ref="E19" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{34A2B9D0-D69D-4676-BE2F-3C06DECF925C}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{95CBBA0E-298A-43F7-8D48-1C7A84CFBF84}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E4B3BBC4-775A-4CD3-BB0D-BA692492C50A}"/>
+    <hyperlink ref="E22" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FEF1B69B-0D6C-4257-9A62-6D544C53C43E}"/>
+    <hyperlink ref="E23" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B2DA38D1-695E-4EB3-B5F8-BD15882AAAA4}"/>
+    <hyperlink ref="E24" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4C97CA2D-0DBD-49C1-AD07-ECA921D3A602}"/>
+    <hyperlink ref="E25" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{230E2621-B843-4D5A-BF3F-C7BD6E34AFBD}"/>
+    <hyperlink ref="E26" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DD407B88-9A06-4338-A319-0A70F935FA5A}"/>
+    <hyperlink ref="E27" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A5700CDE-784D-4CBA-9BF4-C3D07D3C7F43}"/>
+    <hyperlink ref="E28" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F8FB0A90-0C4F-4671-9339-09A0C308ECB4}"/>
+    <hyperlink ref="E29" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FF8D93A7-19F7-4A7E-9B9D-E6915B032252}"/>
+    <hyperlink ref="E30" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A787D6D3-3378-461D-92C5-A1509D483575}"/>
+    <hyperlink ref="E31" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8659AE72-6555-406E-BE77-A905F10C25F2}"/>
+    <hyperlink ref="E32" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{520A7199-22C6-4EF2-AF21-FD40A9F455E1}"/>
+    <hyperlink ref="E33" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DC772B41-1BA8-49E5-B9D6-035E2D930D99}"/>
+    <hyperlink ref="E34" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{56902C5C-7777-4FFA-931B-60581E8A4A17}"/>
+    <hyperlink ref="E35" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{46CF7690-0970-49A7-9AE9-28DDEC8639CC}"/>
+    <hyperlink ref="E36" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F5E0E027-B1FB-46E1-9202-75F86F981958}"/>
+    <hyperlink ref="E37" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9BDADE65-B505-4BC1-83C1-F43715B142E7}"/>
+    <hyperlink ref="E4" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{128BB66B-594D-4731-8A33-C807D3BF0355}"/>
+    <hyperlink ref="E5" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{09EA6A72-8726-477F-BD5F-513A5AD1C03F}"/>
+    <hyperlink ref="E6" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E148A508-D5F9-4D1B-818D-17FAFD45F340}"/>
+    <hyperlink ref="E7" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BCCD7870-C0B5-45F3-A64B-CF826E74EFC4}"/>
+    <hyperlink ref="E8" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{430EA862-1A45-49F9-AAF8-D2E390A52C76}"/>
+    <hyperlink ref="E9" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{941927E1-E026-42F3-8325-836895584267}"/>
+    <hyperlink ref="E10" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4CF241C7-290E-402F-87CB-799996D77DB1}"/>
+    <hyperlink ref="E11" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C2C077EC-4BB9-4235-B0CF-CD73A8127134}"/>
+    <hyperlink ref="E12" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{86D58BC3-1665-4CD4-A98F-DE8A514C8EF5}"/>
+    <hyperlink ref="E13" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{98DF768D-16A0-49C1-8F9B-10FD6629D5DB}"/>
+    <hyperlink ref="E14" r:id="rId37" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A0C4E5E3-31B7-4D18-9C14-A89524EA4A6F}"/>
+    <hyperlink ref="E15" r:id="rId38" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{814EB4E5-FD08-4360-8504-8E23F9C4390A}"/>
+    <hyperlink ref="E16" r:id="rId39" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{99BE0B03-5BFA-4A68-8B0B-09D8BC13BDDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DDAf_2024_Tableau_annexe_sources.xlsx
+++ b/DDAf_2024_Tableau_annexe_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523913B8-30F5-4CF1-9C6B-2EC3FAE2C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A3B79-A73C-4A57-94BD-514F7803687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{5419EBB9-DD33-42A8-A22A-71D91800F8C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{63F0A695-2666-4DEE-9E11-D1AA2A0A6CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -296,7 +296,7 @@
     <t>Organisation Internationale du Travail (OIT)</t>
   </si>
   <si>
-    <t>Récupéré le 14/05/2023</t>
+    <t>Divers ensembles de données, téléchargés après novembre 2023</t>
   </si>
   <si>
     <t>https://ilostat.ilo.org/fr/</t>
@@ -428,13 +428,10 @@
     <t>https://population.un.org/wup/</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2024-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +461,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,6 +502,14 @@
     <font>
       <u/>
       <sz val="8"/>
+      <color rgb="FFD42C2D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -507,7 +520,7 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -533,7 +546,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -549,43 +562,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{9B5C409E-A489-459C-BD63-24762A49E493}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{4DE65309-C66A-40F3-B493-DD3C22A5881C}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -602,7 +615,7 @@
         <u/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <color theme="10"/>
+        <color rgb="FFD42C2D"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -715,7 +728,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFBE3DB"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -749,7 +762,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{271DC029-23F0-41F6-B018-67C902893D07}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{94409393-29F0-4EC5-A93F-40AE5797868D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -767,12 +780,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0795E87D-9FC0-46D1-9D70-86FC9FA77C61}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{777AA3F7-C852-4339-8DD9-A84B3C7818F2}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FD849784-5B78-453A-97DD-FA1BDD06930E}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{65119FAA-0486-4B68-8970-3E69F4EEE554}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{90041506-C5C9-452C-809E-19AE6D544B59}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{FF339C82-A9CA-490C-9F16-4B45094490FE}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{301C1DCF-E07C-487B-A328-39EDCFC8B414}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FC2F174D-21DC-42CA-8881-DA259067C935}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{85068684-BDEE-4C82-9E3D-74336BEA0A14}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{A14F6144-3386-41B1-8C70-3624CFF48E7A}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1074,27 +1087,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D64C3AE-AA59-48DA-839E-4FCEB51EFACD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4094AF2-4D96-4AE8-91A3-ACA2E8CC5543}">
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1115,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1117,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -1132,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1147,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1162,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1177,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1192,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -1207,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>29</v>
@@ -1222,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -1237,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -1252,7 +1265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>41</v>
@@ -1267,7 +1280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>45</v>
@@ -1282,7 +1295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>48</v>
@@ -1297,7 +1310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -1312,7 +1325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
         <v>56</v>
@@ -1327,7 +1340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>60</v>
@@ -1342,7 +1355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>63</v>
@@ -1357,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -1372,7 +1385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>71</v>
@@ -1387,7 +1400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>75</v>
@@ -1402,7 +1415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>79</v>
@@ -1417,7 +1430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
         <v>82</v>
@@ -1432,7 +1445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
         <v>85</v>
@@ -1447,7 +1460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
         <v>89</v>
@@ -1462,7 +1475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
         <v>93</v>
@@ -1477,7 +1490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
         <v>96</v>
@@ -1492,7 +1505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
         <v>100</v>
@@ -1507,7 +1520,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
         <v>103</v>
@@ -1522,7 +1535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>107</v>
@@ -1537,7 +1550,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="s">
         <v>111</v>
@@ -1552,7 +1565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="7" t="s">
         <v>115</v>
@@ -1567,7 +1580,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="7" t="s">
         <v>118</v>
@@ -1582,7 +1595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="7" t="s">
         <v>121</v>
@@ -1597,7 +1610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="7" t="s">
         <v>125</v>
@@ -1612,7 +1625,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="7" t="s">
         <v>129</v>
@@ -1627,300 +1640,299 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
-      <c r="B42" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="5"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="5"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{342457C1-75E4-4D95-BDAD-696B7297E364}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{7CCCC5C1-45EB-45FF-A568-20010112B5E9}"/>
-    <hyperlink ref="B41" r:id="rId3" xr:uid="{49A5437A-7EC5-498F-A529-4D6D528F37E6}"/>
-    <hyperlink ref="B39" r:id="rId4" xr:uid="{F596193E-ECAC-4E6A-8D74-BFF05BE884F5}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{8D561045-A8CB-4AE5-94F6-4A5551A519ED}"/>
-    <hyperlink ref="E17" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B98545A-7200-4065-B16F-33D12ABFB3AB}"/>
-    <hyperlink ref="E18" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4939EC71-8E57-4CA0-A926-E89B9A9E47F7}"/>
-    <hyperlink ref="E19" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{34A2B9D0-D69D-4676-BE2F-3C06DECF925C}"/>
-    <hyperlink ref="E20" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{95CBBA0E-298A-43F7-8D48-1C7A84CFBF84}"/>
-    <hyperlink ref="E21" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E4B3BBC4-775A-4CD3-BB0D-BA692492C50A}"/>
-    <hyperlink ref="E22" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FEF1B69B-0D6C-4257-9A62-6D544C53C43E}"/>
-    <hyperlink ref="E23" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B2DA38D1-695E-4EB3-B5F8-BD15882AAAA4}"/>
-    <hyperlink ref="E24" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4C97CA2D-0DBD-49C1-AD07-ECA921D3A602}"/>
-    <hyperlink ref="E25" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{230E2621-B843-4D5A-BF3F-C7BD6E34AFBD}"/>
-    <hyperlink ref="E26" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DD407B88-9A06-4338-A319-0A70F935FA5A}"/>
-    <hyperlink ref="E27" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A5700CDE-784D-4CBA-9BF4-C3D07D3C7F43}"/>
-    <hyperlink ref="E28" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F8FB0A90-0C4F-4671-9339-09A0C308ECB4}"/>
-    <hyperlink ref="E29" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FF8D93A7-19F7-4A7E-9B9D-E6915B032252}"/>
-    <hyperlink ref="E30" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A787D6D3-3378-461D-92C5-A1509D483575}"/>
-    <hyperlink ref="E31" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8659AE72-6555-406E-BE77-A905F10C25F2}"/>
-    <hyperlink ref="E32" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{520A7199-22C6-4EF2-AF21-FD40A9F455E1}"/>
-    <hyperlink ref="E33" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DC772B41-1BA8-49E5-B9D6-035E2D930D99}"/>
-    <hyperlink ref="E34" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{56902C5C-7777-4FFA-931B-60581E8A4A17}"/>
-    <hyperlink ref="E35" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{46CF7690-0970-49A7-9AE9-28DDEC8639CC}"/>
-    <hyperlink ref="E36" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F5E0E027-B1FB-46E1-9202-75F86F981958}"/>
-    <hyperlink ref="E37" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9BDADE65-B505-4BC1-83C1-F43715B142E7}"/>
-    <hyperlink ref="E4" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{128BB66B-594D-4731-8A33-C807D3BF0355}"/>
-    <hyperlink ref="E5" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{09EA6A72-8726-477F-BD5F-513A5AD1C03F}"/>
-    <hyperlink ref="E6" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E148A508-D5F9-4D1B-818D-17FAFD45F340}"/>
-    <hyperlink ref="E7" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BCCD7870-C0B5-45F3-A64B-CF826E74EFC4}"/>
-    <hyperlink ref="E8" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{430EA862-1A45-49F9-AAF8-D2E390A52C76}"/>
-    <hyperlink ref="E9" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{941927E1-E026-42F3-8325-836895584267}"/>
-    <hyperlink ref="E10" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4CF241C7-290E-402F-87CB-799996D77DB1}"/>
-    <hyperlink ref="E11" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C2C077EC-4BB9-4235-B0CF-CD73A8127134}"/>
-    <hyperlink ref="E12" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{86D58BC3-1665-4CD4-A98F-DE8A514C8EF5}"/>
-    <hyperlink ref="E13" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{98DF768D-16A0-49C1-8F9B-10FD6629D5DB}"/>
-    <hyperlink ref="E14" r:id="rId37" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A0C4E5E3-31B7-4D18-9C14-A89524EA4A6F}"/>
-    <hyperlink ref="E15" r:id="rId38" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{814EB4E5-FD08-4360-8504-8E23F9C4390A}"/>
-    <hyperlink ref="E16" r:id="rId39" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{99BE0B03-5BFA-4A68-8B0B-09D8BC13BDDD}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DBC99A6A-C571-4945-BDD6-8B5EE8E474A2}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{BC1E9AD6-3E6B-4495-B845-50FC3009C0DF}"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4267C41B-67A2-4A5A-87C6-2740A4875471}"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5CCE5EED-5B82-4CDA-86B3-420971C15570}"/>
+    <hyperlink ref="E19" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{79416CF5-673D-4C8F-B54F-6997FEBDD4FE}"/>
+    <hyperlink ref="E20" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{16D92926-6B74-4C1F-88C3-F93554EFB42A}"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EBE24E65-A569-4813-9ECF-4901C8567973}"/>
+    <hyperlink ref="E22" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8004B280-7892-4E31-BC53-E7C21AE29C07}"/>
+    <hyperlink ref="E23" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0F22CA42-1EA5-4DD3-8728-F22DF203258C}"/>
+    <hyperlink ref="E24" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{254B3588-1467-48A5-AFEB-36799BEB62BA}"/>
+    <hyperlink ref="E25" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0D79A0FA-B53B-4EA1-B588-B42B201750BF}"/>
+    <hyperlink ref="E26" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E5F4DEFB-CD81-4110-B4F0-5663ABF36817}"/>
+    <hyperlink ref="E27" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B2DEDF28-D9DC-45A2-A05C-57FDF0543328}"/>
+    <hyperlink ref="E28" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9FD6ECA6-163F-40F5-BE04-D4CC06D0FF69}"/>
+    <hyperlink ref="E29" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D731E60C-53AE-43B0-BDE1-C94765932279}"/>
+    <hyperlink ref="E30" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5C27EEA4-458E-4F57-A1EB-D6E6C46E1093}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{11755289-C375-4328-A287-D60FAF7043A4}"/>
+    <hyperlink ref="E32" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0E3B764D-3753-4F0E-8590-4680C276B625}"/>
+    <hyperlink ref="E33" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{244A25C7-E1DA-4278-B473-1CA2F65235C9}"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D68900E0-9735-40E9-A359-C78C428F8139}"/>
+    <hyperlink ref="E35" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E57CC5B5-7644-4E0E-9857-6F028FD4BF10}"/>
+    <hyperlink ref="E36" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E27377A1-00E4-4CE7-B6DF-C1ACFC2D9BA3}"/>
+    <hyperlink ref="E37" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC7D20C8-BD79-4006-9608-A4FE99386953}"/>
+    <hyperlink ref="E4" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{522A9102-7BE3-453E-BB35-241BDEC4D4B8}"/>
+    <hyperlink ref="E5" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B99EDE7-912A-481E-882B-CCC68C67077F}"/>
+    <hyperlink ref="E6" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{025EA8FD-3AE4-4EAE-B897-40FF193E1B92}"/>
+    <hyperlink ref="E7" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{99CBF9AA-0EBF-4956-8DEB-80E7D0C366A9}"/>
+    <hyperlink ref="E8" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FBBEC1F1-F53B-42B0-9195-4073851B1AD2}"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AD89BF73-2130-42B4-83F8-4FADC5867F17}"/>
+    <hyperlink ref="E10" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2237899D-D2BE-405D-A960-3D48587C0646}"/>
+    <hyperlink ref="E11" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5433E86B-CD53-4CF6-902C-33CD9F958805}"/>
+    <hyperlink ref="E12" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C7709DC8-8E26-4244-9F20-EC0DD34AAFA4}"/>
+    <hyperlink ref="E13" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D9965B93-4133-4CD4-913F-5C92C78E1C29}"/>
+    <hyperlink ref="E14" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{034F48D3-BD1D-4BCA-9E88-9736DE5569EC}"/>
+    <hyperlink ref="E15" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6E5FEFC4-737B-4628-99EA-BE14D399C347}"/>
+    <hyperlink ref="E16" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{97725137-1498-4816-8990-B0C3A889A714}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{70E02B02-6CC7-47E2-B893-A75B8F812852}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{5CC22593-50A5-4130-8873-0A9D1B162764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId40"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DDAf_2024_Tableau_annexe_sources.xlsx
+++ b/DDAf_2024_Tableau_annexe_sources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00A3B79-A73C-4A57-94BD-514F7803687B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE601F86-B1C9-4878-B7ED-1A1D79513E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{63F0A695-2666-4DEE-9E11-D1AA2A0A6CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F17B10B-DDD2-4FDB-B46E-5A46348BEF63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{4DE65309-C66A-40F3-B493-DD3C22A5881C}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{210D920F-F609-465E-A144-C15890E1F0AE}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -762,7 +762,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{94409393-29F0-4EC5-A93F-40AE5797868D}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7FD259BC-9184-4AD1-B006-F88F3BBD5E1E}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -780,12 +780,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{777AA3F7-C852-4339-8DD9-A84B3C7818F2}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ADF6C7A-3CC3-4535-AFE2-664F9783D363}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{301C1DCF-E07C-487B-A328-39EDCFC8B414}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{FC2F174D-21DC-42CA-8881-DA259067C935}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{85068684-BDEE-4C82-9E3D-74336BEA0A14}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{A14F6144-3386-41B1-8C70-3624CFF48E7A}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{265144C0-1B17-46C2-B76B-CD82247B9E09}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B97A2B7D-BF75-49B4-984F-7284193AC44F}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{B4C84BBE-CC55-4200-9328-38F8784F2011}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{5D614F7F-0FCE-447B-A673-F07BC36A408D}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,27 +1087,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4094AF2-4D96-4AE8-91A3-ACA2E8CC5543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71509CCC-FD4B-450E-B813-AD17F8A2C0E2}">
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
         <v>13</v>
@@ -1175,7 +1175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="7" t="s">
         <v>17</v>
@@ -1190,7 +1190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1205,7 +1205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -1220,7 +1220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
         <v>29</v>
@@ -1235,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7" t="s">
         <v>33</v>
@@ -1250,7 +1250,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -1265,7 +1265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="7" t="s">
         <v>41</v>
@@ -1280,7 +1280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
         <v>45</v>
@@ -1295,7 +1295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="7" t="s">
         <v>48</v>
@@ -1310,7 +1310,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -1325,7 +1325,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="7" t="s">
         <v>56</v>
@@ -1340,7 +1340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="7" t="s">
         <v>60</v>
@@ -1355,7 +1355,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
         <v>63</v>
@@ -1370,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -1385,7 +1385,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="7" t="s">
         <v>71</v>
@@ -1400,7 +1400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7" t="s">
         <v>75</v>
@@ -1415,7 +1415,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="7" t="s">
         <v>79</v>
@@ -1430,7 +1430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
         <v>82</v>
@@ -1445,7 +1445,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="7" t="s">
         <v>85</v>
@@ -1460,7 +1460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
         <v>89</v>
@@ -1475,7 +1475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="7" t="s">
         <v>93</v>
@@ -1490,7 +1490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="7" t="s">
         <v>96</v>
@@ -1505,7 +1505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="7" t="s">
         <v>100</v>
@@ -1520,7 +1520,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="7" t="s">
         <v>103</v>
@@ -1535,7 +1535,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="7" t="s">
         <v>107</v>
@@ -1550,7 +1550,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="7" t="s">
         <v>111</v>
@@ -1565,7 +1565,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="7" t="s">
         <v>115</v>
@@ -1580,7 +1580,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="7" t="s">
         <v>118</v>
@@ -1595,7 +1595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="7" t="s">
         <v>121</v>
@@ -1610,7 +1610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="7" t="s">
         <v>125</v>
@@ -1625,7 +1625,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="7" t="s">
         <v>129</v>
@@ -1640,291 +1640,291 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DBC99A6A-C571-4945-BDD6-8B5EE8E474A2}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{BC1E9AD6-3E6B-4495-B845-50FC3009C0DF}"/>
-    <hyperlink ref="E17" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4267C41B-67A2-4A5A-87C6-2740A4875471}"/>
-    <hyperlink ref="E18" r:id="rId4" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5CCE5EED-5B82-4CDA-86B3-420971C15570}"/>
-    <hyperlink ref="E19" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{79416CF5-673D-4C8F-B54F-6997FEBDD4FE}"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{16D92926-6B74-4C1F-88C3-F93554EFB42A}"/>
-    <hyperlink ref="E21" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EBE24E65-A569-4813-9ECF-4901C8567973}"/>
-    <hyperlink ref="E22" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8004B280-7892-4E31-BC53-E7C21AE29C07}"/>
-    <hyperlink ref="E23" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0F22CA42-1EA5-4DD3-8728-F22DF203258C}"/>
-    <hyperlink ref="E24" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{254B3588-1467-48A5-AFEB-36799BEB62BA}"/>
-    <hyperlink ref="E25" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0D79A0FA-B53B-4EA1-B588-B42B201750BF}"/>
-    <hyperlink ref="E26" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E5F4DEFB-CD81-4110-B4F0-5663ABF36817}"/>
-    <hyperlink ref="E27" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B2DEDF28-D9DC-45A2-A05C-57FDF0543328}"/>
-    <hyperlink ref="E28" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9FD6ECA6-163F-40F5-BE04-D4CC06D0FF69}"/>
-    <hyperlink ref="E29" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D731E60C-53AE-43B0-BDE1-C94765932279}"/>
-    <hyperlink ref="E30" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5C27EEA4-458E-4F57-A1EB-D6E6C46E1093}"/>
-    <hyperlink ref="E31" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{11755289-C375-4328-A287-D60FAF7043A4}"/>
-    <hyperlink ref="E32" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0E3B764D-3753-4F0E-8590-4680C276B625}"/>
-    <hyperlink ref="E33" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{244A25C7-E1DA-4278-B473-1CA2F65235C9}"/>
-    <hyperlink ref="E34" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D68900E0-9735-40E9-A359-C78C428F8139}"/>
-    <hyperlink ref="E35" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E57CC5B5-7644-4E0E-9857-6F028FD4BF10}"/>
-    <hyperlink ref="E36" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E27377A1-00E4-4CE7-B6DF-C1ACFC2D9BA3}"/>
-    <hyperlink ref="E37" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC7D20C8-BD79-4006-9608-A4FE99386953}"/>
-    <hyperlink ref="E4" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{522A9102-7BE3-453E-BB35-241BDEC4D4B8}"/>
-    <hyperlink ref="E5" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4B99EDE7-912A-481E-882B-CCC68C67077F}"/>
-    <hyperlink ref="E6" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{025EA8FD-3AE4-4EAE-B897-40FF193E1B92}"/>
-    <hyperlink ref="E7" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{99CBF9AA-0EBF-4956-8DEB-80E7D0C366A9}"/>
-    <hyperlink ref="E8" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FBBEC1F1-F53B-42B0-9195-4073851B1AD2}"/>
-    <hyperlink ref="E9" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AD89BF73-2130-42B4-83F8-4FADC5867F17}"/>
-    <hyperlink ref="E10" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2237899D-D2BE-405D-A960-3D48587C0646}"/>
-    <hyperlink ref="E11" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5433E86B-CD53-4CF6-902C-33CD9F958805}"/>
-    <hyperlink ref="E12" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C7709DC8-8E26-4244-9F20-EC0DD34AAFA4}"/>
-    <hyperlink ref="E13" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{D9965B93-4133-4CD4-913F-5C92C78E1C29}"/>
-    <hyperlink ref="E14" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{034F48D3-BD1D-4BCA-9E88-9736DE5569EC}"/>
-    <hyperlink ref="E15" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6E5FEFC4-737B-4628-99EA-BE14D399C347}"/>
-    <hyperlink ref="E16" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{97725137-1498-4816-8990-B0C3A889A714}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{70E02B02-6CC7-47E2-B893-A75B8F812852}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{5CC22593-50A5-4130-8873-0A9D1B162764}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC1783FF-6C1E-4F0A-9253-210004F4A3BC}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{DA3C37B6-6EB6-4EB8-B597-9B8304F72F8F}"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{32FEF243-9185-496F-995C-87648DB3B677}"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{328502ED-84AA-4A2B-9192-07AEC5216291}"/>
+    <hyperlink ref="E19" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{39B449B6-5214-4355-8181-FC26B020327C}"/>
+    <hyperlink ref="E20" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0BF1C724-5054-4AEA-9F2D-457DACF54A55}"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{545A777F-527D-40FC-8D44-32DD83DF67D1}"/>
+    <hyperlink ref="E22" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C3F9456E-063B-4F88-83AF-761536705F97}"/>
+    <hyperlink ref="E23" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{449DE72C-FB45-4F5A-8C93-56784E9B8F0A}"/>
+    <hyperlink ref="E24" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0EAF6846-5FD8-459E-BEA2-07E1EF3B44FD}"/>
+    <hyperlink ref="E25" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3AC60D7F-FB11-47FE-9555-69DC115181A8}"/>
+    <hyperlink ref="E26" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5DDEA4A6-E1EF-47CE-839C-0FD68C62CD26}"/>
+    <hyperlink ref="E27" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8E319C5E-4EF3-4EBD-A090-06E8C32E3D57}"/>
+    <hyperlink ref="E28" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{06228184-D37E-4107-9A5F-DDE1E53E39C4}"/>
+    <hyperlink ref="E29" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{58494C65-973D-4092-B695-05B471194BFF}"/>
+    <hyperlink ref="E30" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{56526C5E-021E-4A12-BACF-DB7CF991A207}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F6C55EA0-AF28-4022-AD07-A3F798AC0241}"/>
+    <hyperlink ref="E32" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5F2836CE-E24A-420C-B0BC-A045F73E2AD1}"/>
+    <hyperlink ref="E33" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6559FF05-E4F6-4638-AE96-022456DADB47}"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B0BB6AFD-7B06-460D-AB50-BD8680A7982B}"/>
+    <hyperlink ref="E35" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{49850B5A-244E-4CCA-A5A6-FF73C278C7E4}"/>
+    <hyperlink ref="E36" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A79E1E6-ADD8-41DB-B803-3E42B3413781}"/>
+    <hyperlink ref="E37" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AC5F4A8C-3739-4E63-B2AA-F70A253BAA76}"/>
+    <hyperlink ref="E4" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DC674BB0-7339-4CDE-A8B8-AFE9B5576987}"/>
+    <hyperlink ref="E5" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{564E8216-DF29-41CC-A622-2A276CE10C49}"/>
+    <hyperlink ref="E6" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{855D20A9-84A6-4A96-83D7-92CD32F58161}"/>
+    <hyperlink ref="E7" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C54574CE-C02E-484A-B9AD-65C10A084907}"/>
+    <hyperlink ref="E8" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CCE62765-E033-4908-B328-2EABD475EB3B}"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{79DD9046-F47A-46DF-9790-E1BAB82E9112}"/>
+    <hyperlink ref="E10" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A8EE3AA3-8492-4B3E-8F84-10FC088CD352}"/>
+    <hyperlink ref="E11" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7C423E50-2A2A-430F-BA6C-32B7FBAC5C93}"/>
+    <hyperlink ref="E12" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8AFE90AF-2BE3-42EC-9724-F3163543CA3A}"/>
+    <hyperlink ref="E13" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7CE09028-7023-4380-BE02-D122AB7FF6C3}"/>
+    <hyperlink ref="E14" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA125DD3-29DD-4CC4-96C9-2145ABF4A67D}"/>
+    <hyperlink ref="E15" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0FEAAF99-FB67-4447-B4B5-34105AB93978}"/>
+    <hyperlink ref="E16" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{85A4D90A-8CA5-45A5-B53E-98D975ACDEA9}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{9C428EF5-18A5-401F-841F-D034B7D0EEC7}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{1864F828-08B1-4861-A995-FAAFDDECEDAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>

--- a/DDAf_2024_Tableau_annexe_sources.xlsx
+++ b/DDAf_2024_Tableau_annexe_sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\asgendev\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE601F86-B1C9-4878-B7ED-1A1D79513E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D18A7E-51D2-4264-BC85-721B2F9E72BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F17B10B-DDD2-4FDB-B46E-5A46348BEF63}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A0A517C4-F894-4942-B4F0-46009B7FB315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{210D920F-F609-465E-A144-C15890E1F0AE}"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{23F049D9-FD3E-44A3-8656-F517B76BA2CA}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -762,7 +762,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{7FD259BC-9184-4AD1-B006-F88F3BBD5E1E}">
+    <tableStyle name="AfDD Style" pivot="0" count="3" xr9:uid="{BC812C6A-071E-471C-8D80-0AC882044B83}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -780,12 +780,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ADF6C7A-3CC3-4535-AFE2-664F9783D363}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E8F4BEC1-9FDA-4FC1-95F4-9B3B67E2FF47}" name="Table1" displayName="Table1" ref="B3:E37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{265144C0-1B17-46C2-B76B-CD82247B9E09}" name="Sources" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B97A2B7D-BF75-49B4-984F-7284193AC44F}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
-    <tableColumn id="3" xr3:uid="{B4C84BBE-CC55-4200-9328-38F8784F2011}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
-    <tableColumn id="4" xr3:uid="{5D614F7F-0FCE-447B-A673-F07BC36A408D}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{1F8BB973-4C72-4966-A641-FF7BE3087C9F}" name="Sources" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{48DDDF75-26A5-4D82-B7A6-3AAB4EB49CA3}" name="Organisation" dataDxfId="2" dataCellStyle="Comma 2"/>
+    <tableColumn id="3" xr3:uid="{7AAA473B-B257-480E-A2D7-14B593B7968A}" name="Dernière mise à jour" dataDxfId="1" dataCellStyle="Comma 2"/>
+    <tableColumn id="4" xr3:uid="{A61B11FB-DE98-4F30-89A5-82C3633FD355}" name="URL" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="AfDD Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1087,7 +1087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71509CCC-FD4B-450E-B813-AD17F8A2C0E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0321D84C-4E45-4339-B3D7-4451DDC5804E}">
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1887,44 +1887,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BC1783FF-6C1E-4F0A-9253-210004F4A3BC}"/>
-    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{DA3C37B6-6EB6-4EB8-B597-9B8304F72F8F}"/>
-    <hyperlink ref="E17" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{32FEF243-9185-496F-995C-87648DB3B677}"/>
-    <hyperlink ref="E18" r:id="rId4" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{328502ED-84AA-4A2B-9192-07AEC5216291}"/>
-    <hyperlink ref="E19" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{39B449B6-5214-4355-8181-FC26B020327C}"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0BF1C724-5054-4AEA-9F2D-457DACF54A55}"/>
-    <hyperlink ref="E21" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{545A777F-527D-40FC-8D44-32DD83DF67D1}"/>
-    <hyperlink ref="E22" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C3F9456E-063B-4F88-83AF-761536705F97}"/>
-    <hyperlink ref="E23" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{449DE72C-FB45-4F5A-8C93-56784E9B8F0A}"/>
-    <hyperlink ref="E24" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0EAF6846-5FD8-459E-BEA2-07E1EF3B44FD}"/>
-    <hyperlink ref="E25" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{3AC60D7F-FB11-47FE-9555-69DC115181A8}"/>
-    <hyperlink ref="E26" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5DDEA4A6-E1EF-47CE-839C-0FD68C62CD26}"/>
-    <hyperlink ref="E27" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8E319C5E-4EF3-4EBD-A090-06E8C32E3D57}"/>
-    <hyperlink ref="E28" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{06228184-D37E-4107-9A5F-DDE1E53E39C4}"/>
-    <hyperlink ref="E29" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{58494C65-973D-4092-B695-05B471194BFF}"/>
-    <hyperlink ref="E30" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{56526C5E-021E-4A12-BACF-DB7CF991A207}"/>
-    <hyperlink ref="E31" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F6C55EA0-AF28-4022-AD07-A3F798AC0241}"/>
-    <hyperlink ref="E32" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5F2836CE-E24A-420C-B0BC-A045F73E2AD1}"/>
-    <hyperlink ref="E33" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6559FF05-E4F6-4638-AE96-022456DADB47}"/>
-    <hyperlink ref="E34" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B0BB6AFD-7B06-460D-AB50-BD8680A7982B}"/>
-    <hyperlink ref="E35" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{49850B5A-244E-4CCA-A5A6-FF73C278C7E4}"/>
-    <hyperlink ref="E36" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5A79E1E6-ADD8-41DB-B803-3E42B3413781}"/>
-    <hyperlink ref="E37" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{AC5F4A8C-3739-4E63-B2AA-F70A253BAA76}"/>
-    <hyperlink ref="E4" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{DC674BB0-7339-4CDE-A8B8-AFE9B5576987}"/>
-    <hyperlink ref="E5" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{564E8216-DF29-41CC-A622-2A276CE10C49}"/>
-    <hyperlink ref="E6" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{855D20A9-84A6-4A96-83D7-92CD32F58161}"/>
-    <hyperlink ref="E7" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C54574CE-C02E-484A-B9AD-65C10A084907}"/>
-    <hyperlink ref="E8" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{CCE62765-E033-4908-B328-2EABD475EB3B}"/>
-    <hyperlink ref="E9" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{79DD9046-F47A-46DF-9790-E1BAB82E9112}"/>
-    <hyperlink ref="E10" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{A8EE3AA3-8492-4B3E-8F84-10FC088CD352}"/>
-    <hyperlink ref="E11" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7C423E50-2A2A-430F-BA6C-32B7FBAC5C93}"/>
-    <hyperlink ref="E12" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8AFE90AF-2BE3-42EC-9724-F3163543CA3A}"/>
-    <hyperlink ref="E13" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7CE09028-7023-4380-BE02-D122AB7FF6C3}"/>
-    <hyperlink ref="E14" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BA125DD3-29DD-4CC4-96C9-2145ABF4A67D}"/>
-    <hyperlink ref="E15" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{0FEAAF99-FB67-4447-B4B5-34105AB93978}"/>
-    <hyperlink ref="E16" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{85A4D90A-8CA5-45A5-B53E-98D975ACDEA9}"/>
-    <hyperlink ref="B41" r:id="rId37" xr:uid="{9C428EF5-18A5-401F-841F-D034B7D0EEC7}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{1864F828-08B1-4861-A995-FAAFDDECEDAF}"/>
+    <hyperlink ref="F14" r:id="rId1" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{90513089-AFDA-449C-8992-9597440F2C3B}"/>
+    <hyperlink ref="K14" r:id="rId2" display="https://www.imf.org/external/pubs/ft/weo/data/assump.htm" xr:uid="{2D3EC2C0-ED8F-44C1-87FA-A2033207B0F8}"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9F6CE4FC-25F2-4270-B8E2-542979889544}"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{9F8FCF0B-397D-4DEE-A62F-3C049E9B6305}"/>
+    <hyperlink ref="E19" r:id="rId5" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{47369D5E-0EB6-4E23-A881-24419653A52C}"/>
+    <hyperlink ref="E20" r:id="rId6" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7C8AAC4A-37AB-4875-86D2-F49E5FDB7BEF}"/>
+    <hyperlink ref="E21" r:id="rId7" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BBAC21E0-8E01-4014-BEC1-15F7CAB17517}"/>
+    <hyperlink ref="E22" r:id="rId8" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EF2FEEC8-9681-48E7-92B3-B4A6A9E88048}"/>
+    <hyperlink ref="E23" r:id="rId9" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{24351D0A-0320-4421-BA16-047A7AB63E8C}"/>
+    <hyperlink ref="E24" r:id="rId10" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5276891B-AB07-428F-A180-A1E4B735F553}"/>
+    <hyperlink ref="E25" r:id="rId11" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{12D078EC-2B3F-422A-AADE-ACD6F5F101A0}"/>
+    <hyperlink ref="E26" r:id="rId12" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{FFE4B7DD-3EA4-4658-B581-4B520439C81C}"/>
+    <hyperlink ref="E27" r:id="rId13" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{948DF01E-EC14-4365-BAED-B68B3ECDFAD9}"/>
+    <hyperlink ref="E28" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C443E504-9CBE-4E14-AB50-3441FA82C760}"/>
+    <hyperlink ref="E29" r:id="rId15" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{B4E7E54A-AF9F-4166-98A8-98912E760F10}"/>
+    <hyperlink ref="E30" r:id="rId16" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{7ADF1B60-E5B3-44ED-BC44-84A0A6D922AC}"/>
+    <hyperlink ref="E31" r:id="rId17" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{4F949ADA-1B47-43F4-9E23-7D20A891FAEA}"/>
+    <hyperlink ref="E32" r:id="rId18" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{F45DFF3B-0905-455F-A246-C0BF4F0AA218}"/>
+    <hyperlink ref="E33" r:id="rId19" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{E851812C-E57F-43D3-B244-93C654A1AC01}"/>
+    <hyperlink ref="E34" r:id="rId20" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{601E62A1-0387-4B06-BD2E-B34BCDEB5635}"/>
+    <hyperlink ref="E35" r:id="rId21" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{BB963AB0-6CBC-48E9-9699-829650796382}"/>
+    <hyperlink ref="E36" r:id="rId22" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{848D5C27-DAAB-429D-9206-34C3E2F5F787}"/>
+    <hyperlink ref="E37" r:id="rId23" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{115878A0-9A4B-46C8-9F01-7DE1E2D71AF3}"/>
+    <hyperlink ref="E4" r:id="rId24" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{69CB04C0-EA74-421A-8D71-01C6E6909AE9}"/>
+    <hyperlink ref="E5" r:id="rId25" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5019E454-30F9-497C-98CE-78F7FE859605}"/>
+    <hyperlink ref="E6" r:id="rId26" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{916F9D98-FC6F-4B9D-A61E-A9D20A31DDCB}"/>
+    <hyperlink ref="E7" r:id="rId27" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{5167C1F3-4232-4148-BAE9-22DB4F0D7DEF}"/>
+    <hyperlink ref="E8" r:id="rId28" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{30F0A028-079B-4035-9776-5AEA2D1E9AEE}"/>
+    <hyperlink ref="E9" r:id="rId29" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{40915444-8F1A-4B03-AE96-D87DEBB63294}"/>
+    <hyperlink ref="E10" r:id="rId30" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{2E3DD953-9A47-4476-90DF-8123FD9ABD00}"/>
+    <hyperlink ref="E11" r:id="rId31" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{6D539893-456C-409D-B221-481065A314C7}"/>
+    <hyperlink ref="E12" r:id="rId32" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{EA42DD8D-0F54-44BA-8057-39111935C54C}"/>
+    <hyperlink ref="E13" r:id="rId33" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{8A10656D-92C1-4FD2-937D-AD52EE7F7B78}"/>
+    <hyperlink ref="E14" r:id="rId34" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{C6D61566-E7A4-436C-81D1-BDE01BCA2DC4}"/>
+    <hyperlink ref="E15" r:id="rId35" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{211086C5-2477-4AB8-AFF5-6DFA4AD39AED}"/>
+    <hyperlink ref="E16" r:id="rId36" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx" xr:uid="{067C1AB6-ECC1-4B85-8BE7-E48DD12E10DB}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{65FABD01-670D-49FA-9D05-9626AB7323C9}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{71C10A75-419B-4497-8F36-5D5D6D64E35A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
